--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,36 +481,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>557730</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>312547428255</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16:30:35</t>
+          <t>12:12:20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -519,36 +521,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>557730</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>312547428255</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15:05:27</t>
+          <t>12:12:15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -557,36 +561,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>557730</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>680569643872</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16:01:06</t>
+          <t>12:07:55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -595,36 +601,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>557730</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>195248000063</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12:33:48</t>
+          <t>12:07:35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -633,66 +641,960 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>557730</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>050428269671</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:02:55</t>
+          <t>12:04:20</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12:02:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>X000PPY9AN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11:58:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>073852013337</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>11:56:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PC103081</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>11:49:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>551287</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3394023G</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MacKinnon, Andy</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>11:35:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>556622</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8927584G</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nerey, Adrian</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>11:10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>553397</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6448281G</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cardenas, Fernando</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>11:10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>551287</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3394023G</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MacKinnon, Andy</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>556622</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8927584G</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nerey, Adrian</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>556622</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8927584G</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nerey, Adrian</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>556622</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8927584G</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nerey, Adrian</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>141119</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6448252G</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Avelar, Luis Alonso</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>16:39:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>16:37:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>16:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>16:34:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>16:32:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>16:31:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>16:30:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>16:30:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>15:05:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D29" t="n">
         <v>557730</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>5417142H</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Roche, Ann Elizabeth</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2024-08-07</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>16:01:06</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>551287</v>
+        <v>556622</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3394023G</t>
+          <t>8927584G</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MacKinnon, Andy</t>
+          <t>Nerey, Adrian</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1048,7 +1048,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1061,16 +1061,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>556622</v>
+        <v>551287</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>3394023G</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>MacKinnon, Andy</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1082,7 +1082,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1557,44 +1557,6 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>557730</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>5417142H</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Roche, Ann Elizabeth</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2024-08-08</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>16:01:06</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,38 +481,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>550699</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>312547428255</t>
+          <t>3394026G</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kelly, Sean Joseph</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12:12:20</t>
+          <t>14:14:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -546,13 +544,13 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12:12:15</t>
+          <t>12:12:20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -571,7 +569,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>680569643872</t>
+          <t>312547428255</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -586,13 +584,13 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12:07:55</t>
+          <t>12:12:15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -611,7 +609,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>195248000063</t>
+          <t>680569643872</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -626,13 +624,13 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12:07:35</t>
+          <t>12:07:55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -651,7 +649,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>050428269671</t>
+          <t>195248000063</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -666,13 +664,13 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:04:20</t>
+          <t>12:07:35</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -681,7 +679,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>UNUSED</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -691,7 +689,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>050428269671</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -706,13 +704,13 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12:02:46</t>
+          <t>12:04:20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -731,7 +729,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>X000PPY9AN</t>
+          <t>09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -746,13 +744,13 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11:58:57</t>
+          <t>12:02:46</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -771,7 +769,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>073852013337</t>
+          <t>X000PPY9AN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -786,13 +784,13 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11:56:30</t>
+          <t>11:58:57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -811,7 +809,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PC103081</t>
+          <t>073852013337</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -826,13 +824,13 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11:49:49</t>
+          <t>11:56:30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -841,20 +839,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>551287</v>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3394023G</t>
+          <t>PC103081</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MacKinnon, Andy</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -864,13 +864,13 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11:35:40</t>
+          <t>11:49:49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>556622</v>
+        <v>551287</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>3394023G</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>MacKinnon, Andy</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -902,13 +902,13 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11:10:25</t>
+          <t>11:35:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -921,16 +921,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>553397</v>
+        <v>556622</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6448281G</t>
+          <t>8927584G</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cardenas, Fernando</t>
+          <t>Nerey, Adrian</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -940,13 +940,13 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11:10:13</t>
+          <t>11:10:25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -955,20 +955,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>556622</v>
+        <v>553397</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>6448281G</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>Cardenas, Fernando</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -976,7 +976,11 @@
           <t>2024-08-17</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>11:10:13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1014,7 +1018,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1027,16 +1031,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>556622</v>
+        <v>551287</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>3394023G</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>MacKinnon, Andy</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1048,7 +1052,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1061,16 +1065,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>551287</v>
+        <v>556622</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3394023G</t>
+          <t>8927584G</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MacKinnon, Andy</t>
+          <t>Nerey, Adrian</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1082,7 +1086,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1091,36 +1095,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>141119</v>
+        <v>556622</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6448252G</t>
+          <t>8927584G</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Avelar, Luis Alonso</t>
+          <t>Nerey, Adrian</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>16:39:42</t>
-        </is>
-      </c>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>553811</v>
+        <v>141119</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>6448252G</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Avelar, Luis Alonso</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1152,13 +1152,13 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>16:37:34</t>
+          <t>16:39:42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1190,13 +1190,13 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16:36:28</t>
+          <t>16:37:34</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1228,13 +1228,13 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16:34:03</t>
+          <t>16:36:28</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1266,13 +1266,13 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>16:32:30</t>
+          <t>16:34:03</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1304,13 +1304,13 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16:31:20</t>
+          <t>16:32:30</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1342,13 +1342,13 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>16:30:08</t>
+          <t>16:31:20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1378,7 +1378,11 @@
           <t>2024-08-16</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>16:30:08</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1416,7 +1420,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1425,36 +1429,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>557730</v>
+        <v>553811</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>8457196F</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>Bennett, Michael J</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>16:30:35</t>
-        </is>
-      </c>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1486,13 +1486,13 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15:05:27</t>
+          <t>16:30:35</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1522,11 +1522,15 @@
           <t>2024-08-14</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>15:05:27</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1557,6 +1561,40 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,36 +481,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>550699</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3394026G</t>
-        </is>
-      </c>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kelly, Sean Joseph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14:14:18</t>
+          <t>13:54:21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -527,11 +525,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>312547428255</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -539,18 +533,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12:12:20</t>
+          <t>13:54:17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -567,11 +561,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>312547428255</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -579,18 +569,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12:12:15</t>
+          <t>11:40:43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -599,38 +589,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>166111</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>680569643872</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12:07:55</t>
+          <t>11:15:56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -639,38 +627,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>453714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>195248000063</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:07:35</t>
+          <t>11:13:11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -679,38 +665,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>166111</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>050428269671</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>12:04:20</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -722,35 +702,29 @@
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="D8" t="n">
+        <v>166111</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>12:02:46</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -762,35 +736,29 @@
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="D9" t="n">
+        <v>166111</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>X000PPY9AN</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>11:58:57</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -802,35 +770,29 @@
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="D10" t="n">
+        <v>166111</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>073852013337</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>11:56:30</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -842,35 +804,29 @@
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="D11" t="n">
+        <v>166111</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PC103081</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>11:49:49</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -879,36 +835,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>551287</v>
+        <v>166111</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3394023G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MacKinnon, Andy</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>11:35:40</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -917,36 +869,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>556622</v>
+        <v>453714</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>11:10:25</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -955,36 +903,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>553397</v>
+        <v>166111</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6448281G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cardenas, Fernando</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>11:10:13</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -997,28 +941,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>556622</v>
+        <v>453714</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1031,28 +975,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>551287</v>
+        <v>166111</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3394023G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MacKinnon, Andy</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1065,28 +1009,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>556622</v>
+        <v>166111</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1099,28 +1043,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>556622</v>
+        <v>166111</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1129,36 +1073,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>141119</v>
+        <v>166111</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6448252G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Avelar, Luis Alonso</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>16:39:42</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1167,36 +1107,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>553811</v>
+        <v>166111</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>16:37:34</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1205,36 +1141,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>553811</v>
+        <v>166111</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>16:36:28</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1243,36 +1175,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>553811</v>
+        <v>166111</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>16:34:03</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1281,36 +1209,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>553811</v>
+        <v>166111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>16:32:30</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1319,36 +1243,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>553811</v>
+        <v>166111</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>16:31:20</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1357,36 +1277,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>553811</v>
+        <v>166111</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>16:30:08</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1399,28 +1315,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>553811</v>
+        <v>166111</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1433,28 +1349,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>553811</v>
+        <v>453714</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1463,36 +1379,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>557730</v>
+        <v>453714</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>16:30:35</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1501,36 +1413,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>557730</v>
+        <v>166111</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>15:05:27</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1543,58 +1451,1638 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>557730</v>
+        <v>166111</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>453714</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>8457186F</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Contreras, Henry</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>453714</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>8457186F</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Contreras, Henry</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>453714</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8457186F</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Contreras, Henry</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>556111</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6435788G</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Maumalanga, Mark</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>16:18:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>145084</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3394175G</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Torres, Tito Z.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>16:03:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>550699</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3394026G</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kelly, Sean Joseph</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>16:03:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>550699</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3394026G</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kelly, Sean Joseph</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>14:14:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>312547428255</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>12:12:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>312547428255</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>12:12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>680569643872</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>12:07:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>195248000063</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>12:07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>050428269671</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>12:02:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>X000PPY9AN</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>11:58:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>073852013337</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>11:56:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>PC103081</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>11:49:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>551287</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3394023G</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>MacKinnon, Andy</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>11:35:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>556622</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>8927584G</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Nerey, Adrian</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>11:10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>553397</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>6448281G</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Cardenas, Fernando</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>11:10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>556622</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>8927584G</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Nerey, Adrian</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>556622</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>8927584G</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Nerey, Adrian</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>556622</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>8927584G</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Nerey, Adrian</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>556622</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8927584G</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Nerey, Adrian</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>551287</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3394023G</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MacKinnon, Andy</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>141119</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>6448252G</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Avelar, Luis Alonso</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>16:39:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>16:37:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>16:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>16:34:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>16:32:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>16:31:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>16:30:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>16:30:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>15:05:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>557730</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>5417142H</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Roche, Ann Elizabeth</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>2024-08-14</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,34 +481,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>555369</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8265472H</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Burciagatoro, Teofilo Lares</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13:54:21</t>
+          <t>16:42:10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -538,13 +540,13 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13:54:17</t>
+          <t>13:54:21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -574,13 +576,13 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11:40:43</t>
+          <t>13:54:17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -589,20 +591,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -612,13 +612,13 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11:15:56</t>
+          <t>11:40:43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -650,13 +650,13 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11:13:11</t>
+          <t>11:15:56</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -665,20 +665,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -686,11 +686,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>11:13:11</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -724,7 +728,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -758,7 +762,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -792,7 +796,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -805,16 +809,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -826,7 +830,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -839,16 +843,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -860,7 +864,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -873,16 +877,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -894,7 +898,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -928,7 +932,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -941,16 +945,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -996,7 +1000,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1030,7 +1034,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1064,7 +1068,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1098,7 +1102,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1132,7 +1136,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1145,16 +1149,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1166,7 +1170,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1200,7 +1204,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1234,7 +1238,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1268,7 +1272,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1302,7 +1306,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1315,16 +1319,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1336,7 +1340,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1349,16 +1353,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1370,7 +1374,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1383,16 +1387,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1404,7 +1408,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1438,7 +1442,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1451,16 +1455,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1472,7 +1476,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1506,7 +1510,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1540,7 +1544,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1553,16 +1557,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1574,7 +1578,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1608,7 +1612,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1642,7 +1646,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1655,16 +1659,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1676,7 +1680,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1689,16 +1693,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1710,7 +1714,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1723,16 +1727,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1744,7 +1748,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1778,7 +1782,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1812,7 +1816,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1821,36 +1825,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>556111</v>
+        <v>166111</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6435788G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Maumalanga, Mark</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>16:18:32</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1859,36 +1859,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>145084</v>
+        <v>453714</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3394175G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Torres, Tito Z.</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>16:03:58</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1897,36 +1893,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>550699</v>
+        <v>453714</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3394026G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kelly, Sean Joseph</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>16:03:09</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1935,36 +1927,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>550699</v>
+        <v>166111</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3394026G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kelly, Sean Joseph</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>14:14:18</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1973,38 +1961,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>166111</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>312547428255</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>12:12:20</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2013,38 +1995,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>166111</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>312547428255</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>12:12:15</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2053,38 +2029,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>166111</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>680569643872</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>12:07:55</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2093,38 +2063,36 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>556111</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>195248000063</t>
+          <t>6435788G</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Maumalanga, Mark</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>12:07:35</t>
+          <t>16:18:32</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2133,38 +2101,36 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>145084</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>050428269671</t>
+          <t>3394175G</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Torres, Tito Z.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12:04:20</t>
+          <t>16:03:58</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2173,38 +2139,36 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>550699</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>3394026G</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kelly, Sean Joseph</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>12:02:46</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2213,38 +2177,36 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>550699</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>X000PPY9AN</t>
+          <t>3394026G</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kelly, Sean Joseph</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>11:58:57</t>
+          <t>14:14:18</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2253,7 +2215,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>UNUSED</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2263,7 +2225,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>073852013337</t>
+          <t>312547428255</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2278,13 +2240,13 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11:56:30</t>
+          <t>12:12:20</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2293,7 +2255,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>UNUSED</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2303,7 +2265,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PC103081</t>
+          <t>312547428255</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2318,13 +2280,13 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>11:49:49</t>
+          <t>12:12:15</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2333,20 +2295,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>551287</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3394023G</t>
+          <t>680569643872</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MacKinnon, Andy</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2356,13 +2320,13 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11:35:40</t>
+          <t>12:07:55</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2371,20 +2335,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>556622</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>195248000063</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2394,13 +2360,13 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>11:10:25</t>
+          <t>12:07:35</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2409,20 +2375,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>553397</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6448281G</t>
+          <t>050428269671</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Cardenas, Fernando</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2432,13 +2400,13 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11:10:13</t>
+          <t>12:04:20</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2450,17 +2418,19 @@
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>556622</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>09</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2468,11 +2438,15 @@
           <t>2024-08-17</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>12:02:46</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2484,17 +2458,19 @@
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>556622</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>X000PPY9AN</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2502,11 +2478,15 @@
           <t>2024-08-17</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>11:58:57</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2518,17 +2498,19 @@
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>556622</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>073852013337</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2536,11 +2518,15 @@
           <t>2024-08-17</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>11:56:30</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2552,17 +2538,19 @@
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>556622</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>8927584G</t>
+          <t>PC103081</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nerey, Adrian</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2570,11 +2558,15 @@
           <t>2024-08-17</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>11:49:49</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2583,7 +2575,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2604,11 +2596,15 @@
           <t>2024-08-17</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>11:35:40</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2621,32 +2617,32 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>141119</v>
+        <v>556622</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6448252G</t>
+          <t>8927584G</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Avelar, Luis Alonso</t>
+          <t>Nerey, Adrian</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>16:39:42</t>
+          <t>11:10:25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2659,32 +2655,32 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>553811</v>
+        <v>553397</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>6448281G</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Cardenas, Fernando</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>16:37:34</t>
+          <t>11:10:13</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2693,36 +2689,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>553811</v>
+        <v>556622</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>8927584G</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Nerey, Adrian</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>16:36:28</t>
-        </is>
-      </c>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2731,36 +2723,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>553811</v>
+        <v>556622</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>8927584G</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Nerey, Adrian</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>16:34:03</t>
-        </is>
-      </c>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2769,36 +2757,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>553811</v>
+        <v>551287</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>3394023G</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>MacKinnon, Andy</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>16:32:30</t>
-        </is>
-      </c>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2807,36 +2791,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>553811</v>
+        <v>556622</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>8927584G</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Nerey, Adrian</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>16:31:20</t>
-        </is>
-      </c>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2845,36 +2825,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>553811</v>
+        <v>556622</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>8927584G</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Nerey, Adrian</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>16:30:08</t>
-        </is>
-      </c>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2883,20 +2859,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>553811</v>
+        <v>141119</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>8457196F</t>
+          <t>6448252G</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bennett, Michael J</t>
+          <t>Avelar, Luis Alonso</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2904,11 +2880,15 @@
           <t>2024-08-16</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>16:39:42</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2917,7 +2897,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2938,11 +2918,15 @@
           <t>2024-08-16</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>16:37:34</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2955,32 +2939,32 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>557730</v>
+        <v>553811</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>8457196F</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>Bennett, Michael J</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>16:30:35</t>
+          <t>16:36:28</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2993,32 +2977,32 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>557730</v>
+        <v>553811</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>8457196F</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>Bennett, Michael J</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>15:05:27</t>
+          <t>16:34:03</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3027,62 +3011,320 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>557730</v>
+        <v>553811</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5417142H</t>
+          <t>8457196F</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>Bennett, Michael J</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>16:32:30</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>16:31:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>16:30:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>553811</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>8457196F</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bennett, Michael J</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>16:30:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>15:05:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>557730</v>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>5417142H</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Roche, Ann Elizabeth</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>2024-08-14</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>5417142H</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -707,16 +707,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -728,7 +728,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -775,16 +775,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -796,7 +796,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -843,16 +843,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -864,7 +864,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -979,16 +979,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1000,7 +1000,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1034,7 +1034,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1170,7 +1170,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1217,16 +1217,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1238,7 +1238,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1340,7 +1340,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1353,16 +1353,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1374,7 +1374,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1387,16 +1387,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1408,7 +1408,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1476,7 +1476,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1591,16 +1591,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1680,7 +1680,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1693,16 +1693,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1714,7 +1714,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1761,16 +1761,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1782,7 +1782,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1863,16 +1863,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1884,7 +1884,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1918,7 +1918,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2063,36 +2063,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>556111</v>
+        <v>453714</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6435788G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Maumalanga, Mark</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>16:18:32</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2105,16 +2101,16 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>145084</v>
+        <v>556111</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3394175G</t>
+          <t>6435788G</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Torres, Tito Z.</t>
+          <t>Maumalanga, Mark</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2124,13 +2120,13 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>16:03:58</t>
+          <t>16:18:32</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2143,16 +2139,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>550699</v>
+        <v>145084</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3394026G</t>
+          <t>3394175G</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kelly, Sean Joseph</t>
+          <t>Torres, Tito Z.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2162,13 +2158,13 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16:03:09</t>
+          <t>16:03:58</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2200,13 +2196,13 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>14:14:18</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2215,1116 +2211,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>550699</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>312547428255</t>
+          <t>3394026G</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kelly, Sean Joseph</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>12:12:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>312547428255</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>12:12:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>680569643872</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>12:07:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>195248000063</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>12:07:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>050428269671</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>12:04:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>12:02:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>X000PPY9AN</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>11:58:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>073852013337</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>11:56:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>PC103081</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>11:49:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>551287</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3394023G</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>MacKinnon, Andy</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>11:35:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>556622</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>8927584G</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Nerey, Adrian</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>11:10:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>553397</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>6448281G</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Cardenas, Fernando</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>11:10:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>556622</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>8927584G</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Nerey, Adrian</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>556622</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>8927584G</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Nerey, Adrian</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>551287</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>3394023G</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>MacKinnon, Andy</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>556622</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>8927584G</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Nerey, Adrian</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>556622</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>8927584G</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Nerey, Adrian</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2024-08-17</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>141119</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>6448252G</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Avelar, Luis Alonso</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>16:39:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>553811</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>8457196F</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bennett, Michael J</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>16:37:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>553811</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>8457196F</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bennett, Michael J</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>16:36:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>553811</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>8457196F</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bennett, Michael J</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>16:34:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>553811</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>8457196F</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bennett, Michael J</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>16:32:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>553811</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>8457196F</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Bennett, Michael J</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>16:31:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>553811</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>8457196F</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Bennett, Michael J</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>16:30:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>553811</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>8457196F</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bennett, Michael J</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>553811</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>8457196F</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bennett, Michael J</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2024-08-16</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>557730</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>5417142H</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Roche, Ann Elizabeth</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2024-08-14</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>16:30:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>557730</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>5417142H</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Roche, Ann Elizabeth</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2024-08-14</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>15:05:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>557730</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>5417142H</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Roche, Ann Elizabeth</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2024-08-14</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>557730</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>5417142H</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Roche, Ann Elizabeth</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2024-08-14</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
+          <t>14:14:18</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -485,32 +485,32 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>555369</v>
+        <v>555388</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8265472H</t>
+          <t>1632828H</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Burciagatoro, Teofilo Lares</t>
+          <t>Murillo, Billy</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16:42:10</t>
+          <t>13:41:27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -519,34 +519,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>557525</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2157015I</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cortes, Jose</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13:54:21</t>
+          <t>12:59:07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -563,7 +565,11 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8153988B</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -571,18 +577,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13:54:17</t>
+          <t>12:36:04</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -599,7 +605,11 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8153867B</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -607,18 +617,18 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11:40:43</t>
+          <t>12:34:14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -631,32 +641,32 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>166111</v>
+        <v>557525</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>2157015I</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Cortes, Jose</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11:15:56</t>
+          <t>12:32:01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -669,32 +679,32 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>453714</v>
+        <v>555285</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11:13:11</t>
+          <t>12:31:42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -703,32 +713,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>453714</v>
+        <v>156477</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>8265921H</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hast, Carsten</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12:31:17</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -741,28 +755,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>166111</v>
+        <v>555285</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -775,28 +789,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>453714</v>
+        <v>555285</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -809,28 +823,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>453714</v>
+        <v>555285</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -843,28 +857,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>166111</v>
+        <v>555285</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -873,32 +887,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>166111</v>
+        <v>555369</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265472H</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Burciagatoro, Teofilo Lares</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>16:42:10</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -907,20 +925,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -928,11 +944,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>13:54:21</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -941,20 +961,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -962,11 +980,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>13:54:17</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -975,20 +997,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>453714</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8457186F</t>
-        </is>
-      </c>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -996,11 +1016,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>11:40:43</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1009,20 +1033,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1030,11 +1054,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>11:15:56</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1043,20 +1071,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1064,7 +1092,11 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>11:13:11</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1102,7 +1134,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1115,16 +1147,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1136,7 +1168,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1149,16 +1181,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1170,7 +1202,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1204,7 +1236,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1217,16 +1249,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1238,7 +1270,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1272,7 +1304,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1306,7 +1338,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1340,7 +1372,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1374,7 +1406,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1387,16 +1419,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1408,7 +1440,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1442,7 +1474,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1455,16 +1487,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1476,7 +1508,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1489,16 +1521,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1510,7 +1542,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1544,7 +1576,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1578,7 +1610,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1612,7 +1644,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1625,16 +1657,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1646,7 +1678,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1680,7 +1712,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1714,7 +1746,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1748,7 +1780,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1761,16 +1793,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1782,7 +1814,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1816,7 +1848,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1850,7 +1882,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1884,7 +1916,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1918,7 +1950,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1931,16 +1963,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1952,7 +1984,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1986,7 +2018,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2020,7 +2052,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2054,7 +2086,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2067,16 +2099,16 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2088,7 +2120,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2097,36 +2129,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>556111</v>
+        <v>166111</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6435788G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Maumalanga, Mark</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>16:18:32</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2135,36 +2163,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>145084</v>
+        <v>166111</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3394175G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Torres, Tito Z.</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>16:03:58</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2173,66 +2197,448 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>550699</v>
+        <v>166111</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3394026G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kelly, Sean Joseph</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>16:03:09</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>453714</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8457186F</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Contreras, Henry</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>453714</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>8457186F</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Contreras, Henry</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>453714</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>8457186F</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Contreras, Henry</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>556111</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>6435788G</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Maumalanga, Mark</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>16:18:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>145084</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3394175G</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Torres, Tito Z.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>16:03:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>550699</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3394026G</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kelly, Sean Joseph</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>16:03:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>RETURN</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D63" t="n">
         <v>550699</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>3394026G</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Kelly, Sean Joseph</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>2024-08-19</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>14:14:18</t>
         </is>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -485,32 +485,32 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>555388</v>
+        <v>560317</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1632828H</t>
+          <t>2157016I</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Murillo, Billy</t>
+          <t>Ceballos, Martin</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13:41:27</t>
+          <t>16:38:08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -523,32 +523,32 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>557525</v>
+        <v>555467</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2157015I</t>
+          <t>5417694H</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cortes, Jose</t>
+          <t>Demissie, Ashenafi</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12:59:07</t>
+          <t>14:44:18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -557,38 +557,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>555036</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8153988B</t>
+          <t>1632728H</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gomez-Gonzalez, Mauricio</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12:36:04</t>
+          <t>14:26:10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -597,38 +595,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>128341</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8153867B</t>
+          <t>2156972I</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kolomensky, Yury G.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12:34:14</t>
+          <t>12:22:27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -641,32 +637,32 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>557525</v>
+        <v>401293</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2157015I</t>
+          <t>5417848H</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cortes, Jose</t>
+          <t>Ripman, Benjamin</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:32:01</t>
+          <t>12:20:25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -679,32 +675,32 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>555285</v>
+        <v>410837</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>8265306H</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Sisic, Miralem</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12:31:42</t>
+          <t>12:17:22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -717,32 +713,32 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>156477</v>
+        <v>549797</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8265921H</t>
+          <t>1632710H</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hast, Carsten</t>
+          <t>Cahill, Alexander</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12:31:17</t>
+          <t>11:33:51</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -751,20 +747,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>555285</v>
+        <v>555388</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>1632828H</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Murillo, Billy</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -772,11 +768,15 @@
           <t>2024-08-27</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>13:41:27</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -785,20 +785,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>555285</v>
+        <v>557525</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>2157015I</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Cortes, Jose</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -806,11 +806,15 @@
           <t>2024-08-27</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12:59:07</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -819,20 +823,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>555285</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>8153988B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -840,11 +846,15 @@
           <t>2024-08-27</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12:36:04</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -853,20 +863,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>555285</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>8153867B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -874,11 +886,15 @@
           <t>2024-08-27</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12:34:14</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -891,32 +907,32 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>555369</v>
+        <v>557525</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8265472H</t>
+          <t>2157015I</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Burciagatoro, Teofilo Lares</t>
+          <t>Cortes, Jose</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>16:42:10</t>
+          <t>12:32:01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -925,34 +941,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>555285</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8265212H</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13:54:21</t>
+          <t>12:31:42</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -961,34 +979,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>156477</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8265921H</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hast, Carsten</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13:54:17</t>
+          <t>12:31:17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -997,34 +1017,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>555285</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8265212H</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>11:40:43</t>
-        </is>
-      </c>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1033,36 +1051,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>166111</v>
+        <v>555285</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>11:15:56</t>
-        </is>
-      </c>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1071,36 +1085,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>453714</v>
+        <v>555285</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>11:13:11</t>
-        </is>
-      </c>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1113,28 +1123,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>166111</v>
+        <v>555285</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1143,32 +1153,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>453714</v>
+        <v>555369</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>8265472H</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Burciagatoro, Teofilo Lares</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>16:42:10</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1177,20 +1191,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>453714</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8457186F</t>
-        </is>
-      </c>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1198,11 +1210,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>13:54:21</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1211,20 +1227,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1232,11 +1246,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>13:54:17</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1245,20 +1263,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1266,11 +1282,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>11:40:43</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1279,7 +1299,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1300,11 +1320,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>11:15:56</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1313,20 +1337,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1334,11 +1358,15 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>11:13:11</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1372,7 +1400,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1406,7 +1434,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1419,16 +1447,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1440,7 +1468,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,16 +1481,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1474,7 +1502,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1487,16 +1515,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1508,7 +1536,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1521,16 +1549,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1542,7 +1570,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1576,7 +1604,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1610,7 +1638,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1644,7 +1672,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1657,16 +1685,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1678,7 +1706,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1712,7 +1740,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1746,7 +1774,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1759,16 +1787,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1780,7 +1808,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1814,7 +1842,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1848,7 +1876,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1882,7 +1910,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1916,7 +1944,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1950,7 +1978,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1963,16 +1991,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1984,7 +2012,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2018,7 +2046,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2031,16 +2059,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2052,7 +2080,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2086,7 +2114,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2120,7 +2148,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2133,16 +2161,16 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2154,7 +2182,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2167,16 +2195,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2188,7 +2216,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2222,7 +2250,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2256,7 +2284,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2269,16 +2297,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2290,7 +2318,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2303,16 +2331,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2324,7 +2352,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2358,7 +2386,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2371,16 +2399,16 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>166111</v>
+        <v>453714</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2392,7 +2420,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2426,7 +2454,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2460,7 +2488,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2473,16 +2501,16 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>453714</v>
+        <v>166111</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2494,7 +2522,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2503,36 +2531,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>556111</v>
+        <v>166111</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6435788G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Maumalanga, Mark</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>16:18:32</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2541,36 +2565,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>145084</v>
+        <v>166111</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3394175G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Torres, Tito Z.</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>16:03:58</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2579,36 +2599,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>550699</v>
+        <v>453714</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3394026G</t>
+          <t>8457186F</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kelly, Sean Joseph</t>
+          <t>Contreras, Henry</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>16:03:09</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2617,32 +2633,130 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>550699</v>
+        <v>166111</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3394026G</t>
+          <t>3394237G</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kelly, Sean Joseph</t>
+          <t>Hally, John</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>14:14:18</t>
-        </is>
-      </c>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>166111</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3394237G</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Hally, John</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>453714</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8457186F</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Contreras, Henry</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -485,32 +485,32 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>560317</v>
+        <v>429694</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2157016I</t>
+          <t>8457544F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ceballos, Martin</t>
+          <t>Hikita, Yasuyuki</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16:38:08</t>
+          <t>11:13:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -523,32 +523,32 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>555467</v>
+        <v>555373</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5417694H</t>
+          <t>8457064F</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Demissie, Ashenafi</t>
+          <t>Carmichael-Zeek, Tyler H</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:44:18</t>
+          <t>10:43:09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -561,32 +561,32 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>555036</v>
+        <v>553306</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1632728H</t>
+          <t>6435994G</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gomez-Gonzalez, Mauricio</t>
+          <t>Olmstead, Tony</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14:26:10</t>
+          <t>10:41:22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -599,32 +599,32 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>128341</v>
+        <v>557730</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2156972I</t>
+          <t>8927451G</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolomensky, Yury G.</t>
+          <t>Roche, Ann Elizabeth</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12:22:27</t>
+          <t>10:31:38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -637,32 +637,32 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>401293</v>
+        <v>556002</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5417848H</t>
+          <t>8457071F</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ripman, Benjamin</t>
+          <t>Valasquez, Paul</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:20:25</t>
+          <t>10:13:26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -675,32 +675,32 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>410837</v>
+        <v>208779</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8265306H</t>
+          <t>3394084G</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sisic, Miralem</t>
+          <t>Rao, Linfeng</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12:17:22</t>
+          <t>09:47:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -713,32 +713,32 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>549797</v>
+        <v>179817</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1632710H</t>
+          <t>8456984F</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cahill, Alexander</t>
+          <t>Sandoval, Thomas</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11:33:51</t>
+          <t>08:41:56</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -751,32 +751,32 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>555388</v>
+        <v>556641</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1632828H</t>
+          <t>6435753G</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Murillo, Billy</t>
+          <t>Mead, Mark</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13:41:27</t>
+          <t>08:25:35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>557525</v>
+        <v>549086</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2157015I</t>
+          <t>5417177H</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cortes, Jose</t>
+          <t>Boot, Dan</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12:59:07</t>
+          <t>08:10:21</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -823,38 +823,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>555185</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8153988B</t>
+          <t>8265124H</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Capitani, Tom Edward</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12:36:04</t>
+          <t>09:31:11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -863,38 +861,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>558627</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8153867B</t>
+          <t>8265061H</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Davis, Andrew James</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12:34:14</t>
+          <t>10:50:25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -907,32 +903,32 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>557525</v>
+        <v>555036</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2157015I</t>
+          <t>1632737H</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cortes, Jose</t>
+          <t>Gomez-Gonzalez, Mauricio</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12:32:01</t>
+          <t>17:37:14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -945,32 +941,32 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>555285</v>
+        <v>389757</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>1633084H</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Keenan, Marcus E.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12:31:42</t>
+          <t>15:12:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -983,32 +979,32 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>156477</v>
+        <v>451118</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8265921H</t>
+          <t>8265192H</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hast, Carsten</t>
+          <t>Perez Gatica, Eduardo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12:31:17</t>
+          <t>11:09:20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1017,32 +1013,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>555285</v>
+        <v>557550</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>1632672H</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Sullivan, Steve John</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10:47:43</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1055,28 +1055,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>555285</v>
+        <v>549797</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>1632710H</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Cahill, Alexander</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1085,32 +1085,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>555285</v>
+        <v>560317</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>2157016I</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Ceballos, Martin</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>16:38:08</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1119,32 +1123,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>555285</v>
+        <v>555467</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>5417694H</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Demissie, Ashenafi</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>14:44:18</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1157,32 +1165,32 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>555369</v>
+        <v>555036</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8265472H</t>
+          <t>1632728H</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Burciagatoro, Teofilo Lares</t>
+          <t>Gomez-Gonzalez, Mauricio</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16:42:10</t>
+          <t>14:26:10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1191,34 +1199,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>128341</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2156972I</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kolomensky, Yury G.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13:54:21</t>
+          <t>12:22:27</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1227,34 +1237,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>401293</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5417848H</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ripman, Benjamin</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13:54:17</t>
+          <t>12:20:25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1263,34 +1275,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>410837</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8265306H</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sisic, Miralem</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11:40:43</t>
+          <t>12:17:22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1303,32 +1317,32 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>166111</v>
+        <v>549797</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>1632710H</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Cahill, Alexander</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11:15:56</t>
+          <t>11:33:51</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1341,32 +1355,32 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>453714</v>
+        <v>555388</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>1632828H</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Murillo, Billy</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11:13:11</t>
+          <t>13:41:27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1375,32 +1389,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>166111</v>
+        <v>557525</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>2157015I</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Cortes, Jose</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>12:59:07</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1409,32 +1427,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>453714</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>8153988B</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>12:36:04</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1443,32 +1467,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>453714</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>8153867B</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>12:34:14</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1477,32 +1507,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>453714</v>
+        <v>557525</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8457186F</t>
+          <t>2157015I</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Contreras, Henry</t>
+          <t>Cortes, Jose</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>12:32:01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1511,32 +1545,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>166111</v>
+        <v>555285</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>12:31:42</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1545,32 +1583,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>166111</v>
+        <v>156477</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265921H</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Hast, Carsten</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>12:31:17</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1583,28 +1625,28 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>166111</v>
+        <v>555285</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1617,28 +1659,28 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>166111</v>
+        <v>555285</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1651,28 +1693,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>166111</v>
+        <v>555285</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1685,1078 +1727,24 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>166111</v>
+        <v>555285</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3394237G</t>
+          <t>8265212H</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Hally, John</t>
+          <t>Elliott, Rich</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>453714</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>8457186F</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Contreras, Henry</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>453714</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>8457186F</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Contreras, Henry</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>453714</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>8457186F</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Contreras, Henry</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>453714</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>8457186F</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Contreras, Henry</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>453714</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>8457186F</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Contreras, Henry</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>453714</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>8457186F</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Contreras, Henry</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>166111</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>3394237G</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Hally, John</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>453714</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>8457186F</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Contreras, Henry</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -485,32 +485,32 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>429694</v>
+        <v>374474</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8457544F</t>
+          <t>6448313G</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hikita, Yasuyuki</t>
+          <t>Turner, Joshua J.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11:13:38</t>
+          <t>12:01:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -523,32 +523,32 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>555373</v>
+        <v>555275</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8457064F</t>
+          <t>3394012G</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Carmichael-Zeek, Tyler H</t>
+          <t>Bumpas, James R.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10:43:09</t>
+          <t>11:39:42</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -561,32 +561,32 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>553306</v>
+        <v>389757</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6435994G</t>
+          <t>3394481G</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Olmstead, Tony</t>
+          <t>Keenan, Marcus E.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10:41:22</t>
+          <t>11:38:31</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -599,32 +599,32 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>557730</v>
+        <v>429430</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8927451G</t>
+          <t>1637803G</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>Ellis, Michael Robert</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10:31:38</t>
+          <t>11:11:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -633,36 +633,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>556002</v>
+        <v>374474</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8457071F</t>
+          <t>6448313G</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Valasquez, Paul</t>
+          <t>Turner, Joshua J.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>10:13:26</t>
-        </is>
-      </c>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -671,36 +667,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>208779</v>
+        <v>374474</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3394084G</t>
+          <t>6448313G</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rao, Linfeng</t>
+          <t>Turner, Joshua J.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>09:47:06</t>
-        </is>
-      </c>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -713,16 +705,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>179817</v>
+        <v>429694</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8456984F</t>
+          <t>8457544F</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sandoval, Thomas</t>
+          <t>Hikita, Yasuyuki</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -732,13 +724,13 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08:41:56</t>
+          <t>11:13:38</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -751,16 +743,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>556641</v>
+        <v>555373</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6435753G</t>
+          <t>8457064F</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mead, Mark</t>
+          <t>Carmichael-Zeek, Tyler H</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -770,13 +762,13 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08:25:35</t>
+          <t>10:43:09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -789,16 +781,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>549086</v>
+        <v>553306</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5417177H</t>
+          <t>6435994G</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Boot, Dan</t>
+          <t>Olmstead, Tony</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -808,13 +800,13 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08:10:21</t>
+          <t>10:41:22</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -827,32 +819,32 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>555185</v>
+        <v>557730</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8265124H</t>
+          <t>8927451G</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Capitani, Tom Edward</t>
+          <t>Roche, Ann Elizabeth</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09:31:11</t>
+          <t>10:31:38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -865,32 +857,32 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>558627</v>
+        <v>556002</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8265061H</t>
+          <t>8457071F</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Davis, Andrew James</t>
+          <t>Valasquez, Paul</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10:50:25</t>
+          <t>10:13:26</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -903,32 +895,32 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>555036</v>
+        <v>208779</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1632737H</t>
+          <t>3394084G</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gomez-Gonzalez, Mauricio</t>
+          <t>Rao, Linfeng</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17:37:14</t>
+          <t>09:47:06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -941,32 +933,32 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>389757</v>
+        <v>179817</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1633084H</t>
+          <t>8456984F</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Keenan, Marcus E.</t>
+          <t>Sandoval, Thomas</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15:12:59</t>
+          <t>08:41:56</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -979,32 +971,32 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>451118</v>
+        <v>556641</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8265192H</t>
+          <t>6435753G</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Perez Gatica, Eduardo</t>
+          <t>Mead, Mark</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11:09:20</t>
+          <t>08:25:35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1017,32 +1009,32 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>557550</v>
+        <v>549086</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1632672H</t>
+          <t>5417177H</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sullivan, Steve John</t>
+          <t>Boot, Dan</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10:47:43</t>
+          <t>08:10:21</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1051,32 +1043,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>549797</v>
+        <v>555185</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1632710H</t>
+          <t>8265124H</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cahill, Alexander</t>
+          <t>Capitani, Tom Edward</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>09:31:11</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1089,32 +1085,32 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>560317</v>
+        <v>558627</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2157016I</t>
+          <t>8265061H</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ceballos, Martin</t>
+          <t>Davis, Andrew James</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16:38:08</t>
+          <t>10:50:25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1127,32 +1123,32 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>555467</v>
+        <v>555036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5417694H</t>
+          <t>1632737H</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Demissie, Ashenafi</t>
+          <t>Gomez-Gonzalez, Mauricio</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14:44:18</t>
+          <t>17:37:14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1165,32 +1161,32 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>555036</v>
+        <v>389757</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1632728H</t>
+          <t>1633084H</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gomez-Gonzalez, Mauricio</t>
+          <t>Keenan, Marcus E.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14:26:10</t>
+          <t>15:12:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1203,32 +1199,32 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>128341</v>
+        <v>451118</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2156972I</t>
+          <t>8265192H</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kolomensky, Yury G.</t>
+          <t>Perez Gatica, Eduardo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12:22:27</t>
+          <t>11:09:20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1241,32 +1237,32 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>401293</v>
+        <v>557550</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5417848H</t>
+          <t>1632672H</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ripman, Benjamin</t>
+          <t>Sullivan, Steve John</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12:20:25</t>
+          <t>10:47:43</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1275,36 +1271,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RETURN</t>
+          <t>REPEAT</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>410837</v>
+        <v>549797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8265306H</t>
+          <t>1632710H</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sisic, Miralem</t>
+          <t>Cahill, Alexander</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>12:17:22</t>
-        </is>
-      </c>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1317,16 +1309,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>549797</v>
+        <v>560317</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1632710H</t>
+          <t>2157016I</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cahill, Alexander</t>
+          <t>Ceballos, Martin</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1336,13 +1328,13 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11:33:51</t>
+          <t>16:38:08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1355,32 +1347,32 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>555388</v>
+        <v>555467</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1632828H</t>
+          <t>5417694H</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Murillo, Billy</t>
+          <t>Demissie, Ashenafi</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>13:41:27</t>
+          <t>14:44:18</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1393,32 +1385,32 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>557525</v>
+        <v>555036</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2157015I</t>
+          <t>1632728H</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cortes, Jose</t>
+          <t>Gomez-Gonzalez, Mauricio</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>12:59:07</t>
+          <t>14:26:10</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1427,38 +1419,36 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>128341</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8153988B</t>
+          <t>2156972I</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kolomensky, Yury G.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12:36:04</t>
+          <t>12:22:27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1467,38 +1457,36 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>401293</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8153867B</t>
+          <t>5417848H</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ripman, Benjamin</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12:34:14</t>
+          <t>12:20:25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1511,32 +1499,32 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>557525</v>
+        <v>410837</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2157015I</t>
+          <t>8265306H</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cortes, Jose</t>
+          <t>Sisic, Miralem</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12:32:01</t>
+          <t>12:17:22</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1549,32 +1537,32 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>555285</v>
+        <v>549797</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>1632710H</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Cahill, Alexander</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>12:31:42</t>
+          <t>11:33:51</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1587,16 +1575,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>156477</v>
+        <v>555388</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8265921H</t>
+          <t>1632828H</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hast, Carsten</t>
+          <t>Murillo, Billy</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1606,13 +1594,13 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>12:31:17</t>
+          <t>13:41:27</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1621,20 +1609,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>REPEAT</t>
+          <t>RETURN</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>555285</v>
+        <v>557525</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>2157015I</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>Cortes, Jose</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1642,11 +1630,15 @@
           <t>2024-08-27</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>12:59:07</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1655,20 +1647,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>555285</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>8153988B</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1676,11 +1670,15 @@
           <t>2024-08-27</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>12:36:04</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1689,20 +1687,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>555285</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>8153867B</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1710,41 +1710,261 @@
           <t>2024-08-27</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>12:34:14</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>557525</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2157015I</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cortes, Jose</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>12:32:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>555285</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8265212H</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Elliott, Rich</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>12:31:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>156477</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>8265921H</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Hast, Carsten</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>12:31:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>555285</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8265212H</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Elliott, Rich</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>555285</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8265212H</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Elliott, Rich</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>555285</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8265212H</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Elliott, Rich</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>555285</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>8265212H</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Elliott, Rich</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>2024-08-27</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/history.xlsx
+++ b/Test/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,36 +481,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>374474</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6448313G</t>
+          <t>X000PPY9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Turner, Joshua J.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12:01:52</t>
+          <t>09:44:15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -519,36 +521,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>555275</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3394012G</t>
+          <t>8154019B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bumpas, James R.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11:39:42</t>
+          <t>09:03:48</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -561,32 +565,32 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>389757</v>
+        <v>323349</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3394481G</t>
+          <t>8153861B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Keenan, Marcus E.</t>
+          <t>Martinez-Galarce, Dennis</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11:38:31</t>
+          <t>09:03:40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -595,36 +599,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>429430</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1637803G</t>
+          <t>8154165B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ellis, Michael Robert</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11:11:59</t>
+          <t>09:03:35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -633,32 +639,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>374474</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6448313G</t>
+          <t>9651692B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Turner, Joshua J.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>09:03:29</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -667,32 +679,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>374474</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6448313G</t>
+          <t>9651694B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Turner, Joshua J.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>09:03:24</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -705,32 +723,32 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>429694</v>
+        <v>185060</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8457544F</t>
+          <t>8153840B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hikita, Yasuyuki</t>
+          <t>Brachmann, Axel</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11:13:38</t>
+          <t>09:03:16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -743,32 +761,32 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>555373</v>
+        <v>548221</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8457064F</t>
+          <t>9651732B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Carmichael-Zeek, Tyler H</t>
+          <t>Whitney, Randy A.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10:43:09</t>
+          <t>09:03:09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -777,36 +795,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>553306</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6435994G</t>
+          <t>9651744B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Olmstead, Tony</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10:41:22</t>
+          <t>09:03:04</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -815,36 +835,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>557730</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8927451G</t>
+          <t>8154099B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Roche, Ann Elizabeth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10:31:38</t>
+          <t>09:02:58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -853,36 +875,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>556002</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8457071F</t>
+          <t>9651690B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Valasquez, Paul</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10:13:26</t>
+          <t>09:02:52</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -891,36 +915,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>208779</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3394084G</t>
+          <t>9651719B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rao, Linfeng</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09:47:06</t>
+          <t>09:02:45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -933,32 +959,32 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>179817</v>
+        <v>185060</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8456984F</t>
+          <t>8153885B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sandoval, Thomas</t>
+          <t>Brachmann, Axel</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08:41:56</t>
+          <t>09:02:38</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -967,36 +993,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>556641</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6435753G</t>
+          <t>9651701B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mead, Mark</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08:25:35</t>
+          <t>09:02:32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1009,32 +1037,32 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>549086</v>
+        <v>468967</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5417177H</t>
+          <t>9651748B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Boot, Dan</t>
+          <t>Rajkovic, Ivan</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08:10:21</t>
+          <t>09:02:25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1043,36 +1071,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>555185</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8265124H</t>
+          <t>9651755B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Capitani, Tom Edward</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09:31:11</t>
+          <t>09:02:18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1085,32 +1115,32 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>558627</v>
+        <v>565091</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8265061H</t>
+          <t>9651746B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Davis, Andrew James</t>
+          <t>Hoffmann, Lars</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10:50:25</t>
+          <t>09:02:10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1119,36 +1149,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>555036</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1632737H</t>
+          <t>9651698B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gomez-Gonzalez, Mauricio</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17:37:14</t>
+          <t>09:02:03</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1157,36 +1189,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>389757</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1633084H</t>
+          <t>8153963B</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Keenan, Marcus E.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15:12:59</t>
+          <t>09:01:58</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1199,32 +1233,32 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>451118</v>
+        <v>566081</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8265192H</t>
+          <t>8153909B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Perez Gatica, Eduardo</t>
+          <t>Solares Jr., Juan Luis</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11:09:20</t>
+          <t>09:01:39</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1233,36 +1267,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>557550</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1632672H</t>
+          <t>9651775B</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sullivan, Steve John</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10:47:43</t>
+          <t>09:01:32</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1271,32 +1307,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>549797</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1632710H</t>
+          <t>8154164B</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cahill, Alexander</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>09:01:24</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1305,36 +1347,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>560317</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2157016I</t>
+          <t>9651693B</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ceballos, Martin</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>16:38:08</t>
+          <t>09:01:17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1343,36 +1387,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>555467</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5417694H</t>
+          <t>9651707B</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Demissie, Ashenafi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>14:44:18</t>
+          <t>09:01:07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1381,36 +1427,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>555036</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1632728H</t>
+          <t>9651757B</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gomez-Gonzalez, Mauricio</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14:26:10</t>
+          <t>09:01:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1423,32 +1471,32 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>128341</v>
+        <v>562638</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2156972I</t>
+          <t>8153990B</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kolomensky, Yury G.</t>
+          <t>Meuren, Sebastian</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12:22:27</t>
+          <t>09:00:52</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1457,36 +1505,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>401293</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5417848H</t>
+          <t>9651742B</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ripman, Benjamin</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12:20:25</t>
+          <t>09:00:45</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1495,36 +1545,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>410837</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8265306H</t>
+          <t>9651785B</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sisic, Miralem</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12:17:22</t>
+          <t>09:00:34</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1533,36 +1585,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>549797</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1632710H</t>
+          <t>9651704B</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cahill, Alexander</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11:33:51</t>
+          <t>09:00:25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1571,36 +1625,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>555388</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1632828H</t>
+          <t>9651753B</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Murillo, Billy</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13:41:27</t>
+          <t>09:00:17</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1613,32 +1669,32 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>557525</v>
+        <v>457140</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2157015I</t>
+          <t>9651738B</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cortes, Jose</t>
+          <t>Gessner, Oliver</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12:59:07</t>
+          <t>09:00:08</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1657,7 +1713,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8153988B</t>
+          <t>9651695B</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1667,18 +1723,18 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>12:36:04</t>
+          <t>09:00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1687,38 +1743,36 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>UNUSED</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>185060</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>8153867B</t>
+          <t>8153883B</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Brachmann, Axel</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>12:34:14</t>
+          <t>08:59:49</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1731,32 +1785,32 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>557525</v>
+        <v>564118</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2157015I</t>
+          <t>9651741B</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cortes, Jose</t>
+          <t>Mishra, Debadarshini</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>12:32:01</t>
+          <t>08:59:39</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1765,36 +1819,38 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RETURN</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>555285</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>9651773B</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12:31:42</t>
+          <t>08:59:25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1807,32 +1863,32 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>156477</v>
+        <v>565744</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8265921H</t>
+          <t>9651754B</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hast, Carsten</t>
+          <t>Bien, Alex</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12:31:17</t>
+          <t>08:59:08</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1841,32 +1897,38 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>555285</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>9651751B</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>08:59:02</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1875,32 +1937,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>555285</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>9651752B</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>08:58:33</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1909,62 +1977,1396 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>REPEAT</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>555285</v>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8265212H</t>
+          <t>8155450B</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Elliott, Rich</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>08:57:40</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>9651689B</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>08:57:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>311847</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>9651722B</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Needham, Richard A</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>08:57:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>9651696B</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>08:57:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>UNUSED</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>9651703B</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>08:55:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>110094</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3394191G</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Larrus, Marc H.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>08:02:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>551287</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3394023G</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>MacKinnon, Andy</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>13:16:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>217700</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6448290G</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Schlotter, William F.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>13:03:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>374474</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6448313G</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Turner, Joshua J.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>12:01:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>555275</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3394012G</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bumpas, James R.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>11:39:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>389757</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3394481G</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Keenan, Marcus E.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>11:38:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>429430</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1637803G</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Ellis, Michael Robert</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>11:11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>374474</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>6448313G</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Turner, Joshua J.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>REPEAT</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>374474</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>6448313G</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Turner, Joshua J.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>429694</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>8457544F</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Hikita, Yasuyuki</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>11:13:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>555373</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>8457064F</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Carmichael-Zeek, Tyler H</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>10:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>553306</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>6435994G</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Olmstead, Tony</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>10:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>557730</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>8927451G</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Roche, Ann Elizabeth</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>10:31:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>556002</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>8457071F</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Valasquez, Paul</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>10:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>208779</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3394084G</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Rao, Linfeng</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>09:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>179817</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8456984F</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sandoval, Thomas</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>08:41:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>556641</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>6435753G</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Mead, Mark</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>08:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>549086</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5417177H</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Boot, Dan</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>08:10:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>555185</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>8265124H</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Capitani, Tom Edward</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>09:31:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>558627</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>8265061H</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Davis, Andrew James</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>10:50:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>555036</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1632737H</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Gomez-Gonzalez, Mauricio</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>17:37:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>389757</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1633084H</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Keenan, Marcus E.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>15:12:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ODTSSCAN01</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>451118</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>8265192H</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Perez Gatica, Eduardo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>11:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>557550</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1632672H</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sullivan, Steve John</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>10:47:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>REPEAT</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>555285</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>8265212H</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Elliott, Rich</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>549797</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1632710H</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Cahill, Alexander</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>560317</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2157016I</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Ceballos, Martin</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>16:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>555467</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>5417694H</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Demissie, Ashenafi</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>14:44:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>555036</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1632728H</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Gomez-Gonzalez, Mauricio</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>14:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>128341</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2156972I</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kolomensky, Yury G.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>12:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>401293</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5417848H</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ripman, Benjamin</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>12:20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>410837</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>8265306H</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sisic, Miralem</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>12:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ODTSSCAN01</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>RETURN</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>549797</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1632710H</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Cahill, Alexander</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>11:33:51</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
